--- a/PRESUPUESTO ANUAL/Presupuesto Alumnos/Presupuesto alumnos.xlsx
+++ b/PRESUPUESTO ANUAL/Presupuesto Alumnos/Presupuesto alumnos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Tipo de Material</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve">Placa de Cobre 20x15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosfet IRFZ44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timer LM555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led 6N135</t>
   </si>
 </sst>
 </file>
@@ -101,7 +110,7 @@
     <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00;[RED]\([$$-2C0A]#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="[$$-2C0A]#,##0.00;[RED]\([$$-2C0A]#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,12 +149,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -214,11 +217,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,23 +229,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,6 +250,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,10 +334,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,8 +346,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.76"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,7 +377,7 @@
         <v>10152</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>83986.74</v>
+        <v>94117.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,7 +387,7 @@
       <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="6" t="n">
         <v>13657</v>
       </c>
     </row>
@@ -395,7 +398,7 @@
       <c r="B4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="6" t="n">
         <v>3000</v>
       </c>
     </row>
@@ -406,18 +409,18 @@
       <c r="B5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="6" t="n">
         <v>4000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="6" t="n">
         <v>12338.99</v>
       </c>
     </row>
@@ -428,7 +431,7 @@
       <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="6" t="n">
         <v>3704.84</v>
       </c>
     </row>
@@ -439,18 +442,18 @@
       <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="6" t="n">
         <v>2806.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="6" t="n">
         <v>10104.12</v>
       </c>
     </row>
@@ -461,7 +464,7 @@
       <c r="B10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="6" t="n">
         <v>3031.24</v>
       </c>
     </row>
@@ -472,7 +475,7 @@
       <c r="B11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="6" t="n">
         <v>3872.48</v>
       </c>
     </row>
@@ -483,7 +486,7 @@
       <c r="B12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="6" t="n">
         <v>4041.65</v>
       </c>
     </row>
@@ -494,7 +497,7 @@
       <c r="B13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="6" t="n">
         <v>1091.45</v>
       </c>
     </row>
@@ -505,7 +508,7 @@
       <c r="B14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="6" t="n">
         <v>377.57</v>
       </c>
     </row>
@@ -516,7 +519,7 @@
       <c r="B15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="6" t="n">
         <v>3520.62</v>
       </c>
     </row>
@@ -527,7 +530,7 @@
       <c r="B16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="6" t="n">
         <v>188.71</v>
       </c>
     </row>
@@ -538,7 +541,7 @@
       <c r="B17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="6" t="n">
         <v>280.78</v>
       </c>
     </row>
@@ -549,7 +552,7 @@
       <c r="B18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>406.56</v>
       </c>
     </row>
@@ -557,10 +560,10 @@
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <v>309.32</v>
       </c>
     </row>
@@ -568,15 +571,45 @@
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11" t="n">
+      <c r="B20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="n">
         <v>7102.71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11"/>
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>4322.54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12" t="n">
+        <v>2182.9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="n">
+        <v>3625.32</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
